--- a/KSS.xlsx
+++ b/KSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameel/Library/CloudStorage/Dropbox/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D19BD-8A90-8549-81C6-90FCA04A2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972ED336-CE29-E04D-A190-AF28729AFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="3260" windowWidth="31020" windowHeight="21280" activeTab="1" xr2:uid="{E4E86949-30F2-B846-B247-3E813273A05B}"/>
+    <workbookView xWindow="13780" yWindow="3260" windowWidth="31020" windowHeight="21280" activeTab="1" xr2:uid="{E4E86949-30F2-B846-B247-3E813273A05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22023</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>58729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -488,7 +488,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>22023</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95434</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1894A36A-8AC5-0144-B9F4-AFE7547B4C11}">
-  <dimension ref="B2:HV55"/>
+  <dimension ref="B2:HV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5171,173 +5171,203 @@
       </c>
     </row>
     <row r="51" spans="2:21">
-      <c r="B51" s="1" t="s">
+      <c r="K51" s="4">
+        <f>+K48/K47</f>
+        <v>0.3541274995727226</v>
+      </c>
+      <c r="P51" s="4">
+        <f>+P48/P47</f>
+        <v>0.26959164794502444</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" ref="Q51:U51" si="46">+Q48/Q47</f>
+        <v>0.25890671743268967</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="46"/>
+        <v>0.32051785013730877</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="46"/>
+        <v>0.34670138888888891</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="46"/>
+        <v>0.30766494753690199</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="46"/>
+        <v>0.32336714717921339</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>-202</v>
       </c>
-      <c r="D51" s="1">
-        <f>228-C51</f>
+      <c r="D52" s="1">
+        <f>228-C52</f>
         <v>430</v>
       </c>
-      <c r="E51" s="1">
-        <f>379-SUM(C51:D51)</f>
+      <c r="E52" s="1">
+        <f>379-SUM(C52:D52)</f>
         <v>151</v>
       </c>
-      <c r="F51" s="1">
-        <f>1168-SUM(C51:E51)</f>
+      <c r="F52" s="1">
+        <f>1168-SUM(C52:E52)</f>
         <v>789</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G52" s="1">
         <v>-7</v>
       </c>
-      <c r="H51" s="1">
-        <f>247-G51</f>
+      <c r="H52" s="1">
+        <f>247-G52</f>
         <v>254</v>
       </c>
-      <c r="I51" s="1">
-        <f>52-SUM(G51:H51)</f>
+      <c r="I52" s="1">
+        <f>52-SUM(G52:H52)</f>
         <v>-195</v>
       </c>
-      <c r="J51" s="1">
-        <f>648-SUM(G51:I51)</f>
+      <c r="J52" s="1">
+        <f>648-SUM(G52:I52)</f>
         <v>596</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K52" s="1">
         <f>+-92</f>
         <v>-92</v>
       </c>
-      <c r="T51" s="1">
-        <f>+SUM(C51:F51)</f>
-        <v>1168</v>
-      </c>
-      <c r="U51" s="1">
-        <f>SUM(H51:K51)</f>
-        <v>563</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21">
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-94</v>
-      </c>
-      <c r="D52" s="1">
-        <f>+-338-C52</f>
-        <v>-244</v>
-      </c>
-      <c r="E52" s="1">
-        <f>+-495-SUM(C52:D52)</f>
-        <v>-157</v>
-      </c>
-      <c r="F52" s="1">
-        <f>+-577-SUM(C52:E52)</f>
-        <v>-82</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-126</v>
-      </c>
-      <c r="H52" s="1">
-        <f>+-239-G52</f>
-        <v>-113</v>
-      </c>
-      <c r="I52" s="1">
-        <f>+-367-SUM(G52:H52)</f>
-        <v>-128</v>
-      </c>
-      <c r="J52" s="1">
-        <f>+-466-SUM(G52:I52)</f>
-        <v>-99</v>
-      </c>
-      <c r="K52" s="1">
-        <v>-110</v>
-      </c>
       <c r="T52" s="1">
         <f>+SUM(C52:F52)</f>
-        <v>-577</v>
+        <v>1168</v>
       </c>
       <c r="U52" s="1">
         <f>SUM(H52:K52)</f>
-        <v>-450</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:K53" si="46">+C51+C52</f>
-        <v>-296</v>
+        <v>-94</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="46"/>
-        <v>186</v>
+        <f>+-338-C53</f>
+        <v>-244</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="46"/>
-        <v>-6</v>
+        <f>+-495-SUM(C53:D53)</f>
+        <v>-157</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="46"/>
-        <v>707</v>
+        <f>+-577-SUM(C53:E53)</f>
+        <v>-82</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="46"/>
-        <v>-133</v>
+        <v>-126</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="46"/>
-        <v>141</v>
+        <f>+-239-G53</f>
+        <v>-113</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="46"/>
-        <v>-323</v>
+        <f>+-367-SUM(G53:H53)</f>
+        <v>-128</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="46"/>
-        <v>497</v>
+        <f>+-466-SUM(G53:I53)</f>
+        <v>-99</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="46"/>
-        <v>-202</v>
+        <v>-110</v>
       </c>
       <c r="T53" s="1">
         <f>+SUM(C53:F53)</f>
-        <v>591</v>
+        <v>-577</v>
       </c>
       <c r="U53" s="1">
         <f>SUM(H53:K53)</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:K54" si="47">+C52+C53</f>
+        <v>-296</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="47"/>
+        <v>186</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="47"/>
+        <v>-6</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="47"/>
+        <v>707</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="47"/>
+        <v>-133</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="47"/>
+        <v>141</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="47"/>
+        <v>-323</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="47"/>
+        <v>497</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="47"/>
+        <v>-202</v>
+      </c>
+      <c r="T54" s="1">
+        <f>+SUM(C54:F54)</f>
+        <v>591</v>
+      </c>
+      <c r="U54" s="1">
+        <f>SUM(H54:K54)</f>
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="2:21">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:21">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" ref="F55:K55" si="47">+SUM(C53:F53)</f>
+      <c r="F56" s="1">
+        <f t="shared" ref="F56:K56" si="48">+SUM(C54:F54)</f>
         <v>591</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="47"/>
+      <c r="G56" s="1">
+        <f t="shared" si="48"/>
         <v>754</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="47"/>
+      <c r="H56" s="1">
+        <f t="shared" si="48"/>
         <v>709</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="47"/>
+      <c r="I56" s="1">
+        <f t="shared" si="48"/>
         <v>392</v>
       </c>
-      <c r="J55" s="1">
-        <f t="shared" si="47"/>
+      <c r="J56" s="1">
+        <f t="shared" si="48"/>
         <v>182</v>
       </c>
-      <c r="K55" s="1">
-        <f t="shared" si="47"/>
+      <c r="K56" s="1">
+        <f t="shared" si="48"/>
         <v>113</v>
       </c>
     </row>
